--- a/IE GA.xlsx
+++ b/IE GA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28521"/>
   <workbookPr showInkAnnotation="0"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="7_{D8551809-0FF1-0C44-98E8-4B1B84EA227A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6426690-9817-457A-93D8-BA257FF79931}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="7_{D8551809-0FF1-0C44-98E8-4B1B84EA227A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC0D09BB-184A-47EB-A879-87BABD9959DF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Machine st2</t>
+  </si>
+  <si>
+    <t>Tardiness</t>
   </si>
   <si>
     <t>A4</t>
@@ -456,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95248120-32E9-5848-A6D3-76C6333251B6}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -467,7 +470,7 @@
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,10 +507,13 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -542,10 +548,14 @@
       <c r="L2">
         <v>4</v>
       </c>
+      <c r="M2">
+        <f>MAX(0,J2-E2)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -580,10 +590,14 @@
       <c r="L3">
         <v>3</v>
       </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M7" si="0">MAX(0,J3-E3)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -618,10 +632,14 @@
       <c r="L4">
         <v>3</v>
       </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -656,10 +674,14 @@
       <c r="L5">
         <v>4</v>
       </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -694,10 +716,14 @@
       <c r="L6">
         <v>3</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>12</v>
@@ -731,6 +757,10 @@
       </c>
       <c r="L7">
         <v>4</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/IE GA.xlsx
+++ b/IE GA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/359e143b40d737b2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbe64d8e92682174/Thesis/Data/Illustrative Example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="7_{D8551809-0FF1-0C44-98E8-4B1B84EA227A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D91BAB4-8AA1-4CA5-8D35-9FEC4D5E0152}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="7_{D8551809-0FF1-0C44-98E8-4B1B84EA227A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D312F47-92FC-43EB-B8AB-C48C21B65ADD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,19 +99,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFA31515"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,11 +128,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,18 +464,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95248120-32E9-5848-A6D3-76C6333251B6}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,9 +512,8 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -564,10 +551,11 @@
         <v>4</v>
       </c>
       <c r="M2">
+        <f>MAX(0,J2-E2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -605,10 +593,11 @@
         <v>3</v>
       </c>
       <c r="M3">
+        <f t="shared" ref="M3:M7" si="0">MAX(0,J3-E3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -646,10 +635,11 @@
         <v>3</v>
       </c>
       <c r="M4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -687,10 +677,11 @@
         <v>4</v>
       </c>
       <c r="M5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -728,10 +719,11 @@
         <v>3</v>
       </c>
       <c r="M6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -769,6 +761,7 @@
         <v>4</v>
       </c>
       <c r="M7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
